--- a/nr-publish-ballot-2/ig/StructureDefinition-fr-core-organization-uac.xlsx
+++ b/nr-publish-ballot-2/ig/StructureDefinition-fr-core-organization-uac.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1952" uniqueCount="413">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1847" uniqueCount="380">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-28T08:22:20+00:00</t>
+    <t>2026-01-28T13:01:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -84,8 +84,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>This profile specializes the fr-core-organization profile to represent administrative units inside healthcare institutions.
-Ce profil spécialise le profil fr-core-organization pour représenter les unités administratives et comptables (UAC) en établissement</t>
+    <t>Ce profil permet de représenter les unités d'activité (UAC, parfois appelé PAC). L'UAC (Unité d'Activité) est le niveau élémentaire de recueil des activités en vue de la facturation.</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -115,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Organization|4.0.1</t>
+    <t>https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization|2.2.0-ballot-2</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -466,9 +465,6 @@
     <t>fr-canonical</t>
   </si>
   <si>
-    <t>https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization-uac|2.2.0-ballot-2</t>
-  </si>
-  <si>
     <t>Organization.meta.security</t>
   </si>
   <si>
@@ -641,9 +637,7 @@
     <t>FR Core Organization Short Name Extension</t>
   </si>
   <si>
-    <t>Libellé court de l'organisation
--The Organization short name</t>
+    <t>Libellé court de l'organisation</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
@@ -656,15 +650,14 @@
     <t>description</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization-description|2.2.0-ballot-2}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Organization.description}
 </t>
   </si>
   <si>
-    <t>FR Core Organization Description Extension</t>
-  </si>
-  <si>
-    <t>Description textuelle d'une organisation
-Organization description</t>
+    <t>Optional Extensions Element</t>
+  </si>
+  <si>
+    <t>Optional Extension Element - found in all resources.</t>
   </si>
   <si>
     <t>Organization.extension:usePeriod</t>
@@ -680,6 +673,76 @@
     <t>The date range that this organization should be considered available.</t>
   </si>
   <si>
+    <t>Organization.extension:openReason</t>
+  </si>
+  <si>
+    <t>openReason</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {note|5.2.0}
+</t>
+  </si>
+  <si>
+    <t>Additional notes that apply to this resource or element.</t>
+  </si>
+  <si>
+    <t>This extension SHALL NOT be used if the resource already has standard 'note' element (or equivalent) of type Annotation on the same element</t>
+  </si>
+  <si>
+    <t>Organization.extension:closureReason</t>
+  </si>
+  <si>
+    <t>closureReason</t>
+  </si>
+  <si>
+    <t>Organization.extension:members</t>
+  </si>
+  <si>
+    <t>members</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization-member|2.2.0-ballot-2}
+</t>
+  </si>
+  <si>
+    <t>FR Core Organization Extension - Membre d'organisation</t>
+  </si>
+  <si>
+    <t>Extension permettant de définir des membres d'une organisation.</t>
+  </si>
+  <si>
+    <t>Organization.extension:disciplinePrestation</t>
+  </si>
+  <si>
+    <t>disciplinePrestation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization-discipline-prestation|2.2.0-ballot-2}
+</t>
+  </si>
+  <si>
+    <t>FR Core Organization Extension - Discipline Prestation</t>
+  </si>
+  <si>
+    <t>Discipline de prestation d'une UAC</t>
+  </si>
+  <si>
+    <t>Organization.extension:tarif</t>
+  </si>
+  <si>
+    <t>tarif</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization-tarif|2.2.0-ballot-2}
+</t>
+  </si>
+  <si>
+    <t>FR Core Organization Extension - Tarif Soin</t>
+  </si>
+  <si>
+    <t>Tarif de soin associé à l'unité d'activité (UAC, parfois appelé PAC). Le PAC ou l’UAC est le niveau élémentaire de recueil des activités en vue de la facturation. Il est lié à une discipline de prestation et à un tarif (lié à la discipline de prestation). Le PAC ne sert qu’à la facturation du séjour. Il permet d’associer des tarifs de soins différents pour la prise en charge d’un patient.</t>
+  </si>
+  <si>
     <t>Organization.modifierExtension</t>
   </si>
   <si>
@@ -728,213 +791,46 @@
     <t>FiveWs.identifier</t>
   </si>
   <si>
-    <t>Organization.identifier.id</t>
-  </si>
-  <si>
-    <t>Organization.identifier.extension</t>
-  </si>
-  <si>
-    <t>Organization.identifier.use</t>
-  </si>
-  <si>
-    <t>usual | official | temp | secondary | old (If known)</t>
-  </si>
-  <si>
-    <t>The purpose of this identifier.</t>
-  </si>
-  <si>
-    <t>Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
-  </si>
-  <si>
-    <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-use|4.0.1</t>
-  </si>
-  <si>
-    <t>Identifier.use</t>
-  </si>
-  <si>
-    <t>Role.code or implied by context</t>
-  </si>
-  <si>
-    <t>Organization.identifier.type</t>
+    <t>Organization.active</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boolean
+</t>
+  </si>
+  <si>
+    <t>Whether the organization's record is still in active use</t>
+  </si>
+  <si>
+    <t>Whether the organization's record is still in active use.</t>
+  </si>
+  <si>
+    <t>This active flag is not intended to be used to mark an organization as temporarily closed or under construction. Instead the Location(s) within the Organization should have the suspended status. If further details of the reason for the suspension are required, then an extension on this element should be used.
+This element is labeled as a modifier because it may be used to mark that the resource was created in error.</t>
+  </si>
+  <si>
+    <t>Need a flag to indicate a record is no longer to be used and should generally be hidden for the user in the UI.</t>
+  </si>
+  <si>
+    <t>This resource is generally assumed to be active if no value is provided for the active element</t>
+  </si>
+  <si>
+    <t>No equivalent in HL7 v2</t>
+  </si>
+  <si>
+    <t>.status</t>
+  </si>
+  <si>
+    <t>./Status (however this concept in ServD more covers why the organization is active or not, could be delisted, deregistered, not operational yet) this could alternatively be derived from ./StartDate and ./EndDate and given a context date.</t>
+  </si>
+  <si>
+    <t>FiveWs.status</t>
+  </si>
+  <si>
+    <t>Organization.type</t>
   </si>
   <si>
     <t xml:space="preserve">CodeableConcept
 </t>
-  </si>
-  <si>
-    <t>Description of identifier</t>
-  </si>
-  <si>
-    <t>A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
-  </si>
-  <si>
-    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
-  </si>
-  <si>
-    <t>Allows users to make use of identifiers when the identifier system is not known.</t>
-  </si>
-  <si>
-    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-organization-identifier-type|2.2.0-ballot-2</t>
-  </si>
-  <si>
-    <t>Identifier.type</t>
-  </si>
-  <si>
-    <t>CX.5</t>
-  </si>
-  <si>
-    <t>Organization.identifier.system</t>
-  </si>
-  <si>
-    <t>The namespace for the identifier value</t>
-  </si>
-  <si>
-    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
-  </si>
-  <si>
-    <t>Identifier.system is always case sensitive.</t>
-  </si>
-  <si>
-    <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
-  </si>
-  <si>
-    <t>http://www.acme.com/identifiers/patient</t>
-  </si>
-  <si>
-    <t>Identifier.system</t>
-  </si>
-  <si>
-    <t>CX.4 / EI-2-4</t>
-  </si>
-  <si>
-    <t>II.root or Role.id.root</t>
-  </si>
-  <si>
-    <t>./IdentifierType</t>
-  </si>
-  <si>
-    <t>Organization.identifier.value</t>
-  </si>
-  <si>
-    <t>The value that is unique</t>
-  </si>
-  <si>
-    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
-  </si>
-  <si>
-    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
-  </si>
-  <si>
-    <t>123456</t>
-  </si>
-  <si>
-    <t>Identifier.value</t>
-  </si>
-  <si>
-    <t>CX.1 / EI.1</t>
-  </si>
-  <si>
-    <t>II.extension or II.root if system indicates OID or GUID (Or Role.id.extension or root)</t>
-  </si>
-  <si>
-    <t>./Value</t>
-  </si>
-  <si>
-    <t>Organization.identifier.period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Period
-</t>
-  </si>
-  <si>
-    <t>Time period when id is/was valid for use</t>
-  </si>
-  <si>
-    <t>Time period during which identifier is/was valid for use.</t>
-  </si>
-  <si>
-    <t>Identifier.period</t>
-  </si>
-  <si>
-    <t>CX.7 + CX.8</t>
-  </si>
-  <si>
-    <t>Role.effectiveTime or implied by context</t>
-  </si>
-  <si>
-    <t>./StartDate and ./EndDate</t>
-  </si>
-  <si>
-    <t>Organization.identifier.assigner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Organization|4.0.1)
-</t>
-  </si>
-  <si>
-    <t>Organization that issued id (may be just text)</t>
-  </si>
-  <si>
-    <t>Organization that issued/manages the identifier.</t>
-  </si>
-  <si>
-    <t>The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
-  </si>
-  <si>
-    <t>Identifier.assigner</t>
-  </si>
-  <si>
-    <t>CX.4 / (CX.4,CX.9,CX.10)</t>
-  </si>
-  <si>
-    <t>II.assigningAuthorityName but note that this is an improper use by the definition of the field.  Also Role.scoper</t>
-  </si>
-  <si>
-    <t>./IdentifierIssuingAuthority</t>
-  </si>
-  <si>
-    <t>Organization.active</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boolean
-</t>
-  </si>
-  <si>
-    <t>Whether the organization's record is still in active use</t>
-  </si>
-  <si>
-    <t>Whether the organization's record is still in active use.</t>
-  </si>
-  <si>
-    <t>This active flag is not intended to be used to mark an organization as temporarily closed or under construction. Instead the Location(s) within the Organization should have the suspended status. If further details of the reason for the suspension are required, then an extension on this element should be used.
-This element is labeled as a modifier because it may be used to mark that the resource was created in error.</t>
-  </si>
-  <si>
-    <t>Need a flag to indicate a record is no longer to be used and should generally be hidden for the user in the UI.</t>
-  </si>
-  <si>
-    <t>This resource is generally assumed to be active if no value is provided for the active element</t>
-  </si>
-  <si>
-    <t>No equivalent in HL7 v2</t>
-  </si>
-  <si>
-    <t>.status</t>
-  </si>
-  <si>
-    <t>./Status (however this concept in ServD more covers why the organization is active or not, could be delisted, deregistered, not operational yet) this could alternatively be derived from ./StartDate and ./EndDate and given a context date.</t>
-  </si>
-  <si>
-    <t>FiveWs.status</t>
-  </si>
-  <si>
-    <t>Organization.type</t>
   </si>
   <si>
     <t>Kind of organization</t>
@@ -951,6 +847,14 @@
     <t>Need to be able to track the kind of organization that this is - different organization types have different uses.</t>
   </si>
   <si>
+    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
+  &lt;coding&gt;
+    &lt;system value="https://hl7.fr/ig/fhir/core/CodeSystem/fr-core-cs-v2-3307"/&gt;
+    &lt;code value="UAC"/&gt;
+  &lt;/coding&gt;
+&lt;/valueCodeableConcept&gt;</t>
+  </si>
+  <si>
     <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-organization-type|2.2.0-ballot-2</t>
   </si>
   <si>
@@ -1006,7 +910,7 @@
     <t>Organization.telecom</t>
   </si>
   <si>
-    <t xml:space="preserve">ContactPoint
+    <t xml:space="preserve">ContactPoint {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-contact-point|2.2.0-ballot-2}
 </t>
   </si>
   <si>
@@ -1042,7 +946,7 @@
     <t>Organization.address</t>
   </si>
   <si>
-    <t xml:space="preserve">Address
+    <t xml:space="preserve">Address {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-address|2.2.0-ballot-2}
 </t>
   </si>
   <si>
@@ -1078,7 +982,7 @@
     <t>Organization.partOf</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization|2.2.0-ballot-2)
+    <t xml:space="preserve">Reference(https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization-uf|2.2.0-ballot-2)
 </t>
   </si>
   <si>
@@ -1621,7 +1525,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN53"/>
+  <dimension ref="A1:AN50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1630,9 +1534,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="32.09765625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="35.046875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="32.09765625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="10.8515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="16.25390625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
@@ -1640,7 +1544,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="82.265625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="89.1796875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1649,13 +1553,13 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="32.7734375" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="8.53515625" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="84.54296875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="68.49609375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="60.875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
@@ -1666,7 +1570,7 @@
     <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="37" max="37" width="26.69140625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="87.9765625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="43.6953125" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="187.0625" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="31.65234375" customWidth="true" bestFit="true"/>
   </cols>
@@ -2863,7 +2767,7 @@
         <v>78</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>145</v>
+        <v>33</v>
       </c>
       <c r="T11" t="s" s="2">
         <v>78</v>
@@ -2931,10 +2835,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2957,16 +2861,16 @@
         <v>89</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="L12" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="L12" t="s" s="2">
+      <c r="M12" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="M12" t="s" s="2">
+      <c r="N12" t="s" s="2">
         <v>149</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>150</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -2992,31 +2896,31 @@
         <v>78</v>
       </c>
       <c r="X12" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="Y12" t="s" s="2">
         <v>151</v>
       </c>
-      <c r="Y12" t="s" s="2">
+      <c r="Z12" t="s" s="2">
         <v>152</v>
       </c>
-      <c r="Z12" t="s" s="2">
+      <c r="AA12" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB12" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC12" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD12" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE12" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF12" t="s" s="2">
         <v>153</v>
-      </c>
-      <c r="AA12" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB12" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC12" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD12" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE12" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF12" t="s" s="2">
-        <v>154</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>79</v>
@@ -3045,10 +2949,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3071,16 +2975,16 @@
         <v>89</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="L13" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="M13" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="M13" t="s" s="2">
+      <c r="N13" t="s" s="2">
         <v>157</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>158</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3106,31 +3010,31 @@
         <v>78</v>
       </c>
       <c r="X13" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="Y13" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="Y13" t="s" s="2">
+      <c r="Z13" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="Z13" t="s" s="2">
+      <c r="AA13" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB13" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC13" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD13" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE13" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF13" t="s" s="2">
         <v>161</v>
-      </c>
-      <c r="AA13" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB13" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC13" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD13" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE13" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF13" t="s" s="2">
-        <v>162</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>79</v>
@@ -3159,10 +3063,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3188,13 +3092,13 @@
         <v>130</v>
       </c>
       <c r="L14" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="M14" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="M14" t="s" s="2">
+      <c r="N14" t="s" s="2">
         <v>165</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>166</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -3244,7 +3148,7 @@
         <v>78</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>79</v>
@@ -3273,10 +3177,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3299,16 +3203,16 @@
         <v>78</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="M15" t="s" s="2">
+      <c r="N15" t="s" s="2">
         <v>171</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>172</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3334,31 +3238,31 @@
         <v>78</v>
       </c>
       <c r="X15" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="Y15" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="Y15" t="s" s="2">
+      <c r="Z15" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="Z15" t="s" s="2">
+      <c r="AA15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF15" t="s" s="2">
         <v>175</v>
-      </c>
-      <c r="AA15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF15" t="s" s="2">
-        <v>176</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>79</v>
@@ -3387,14 +3291,14 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -3413,16 +3317,16 @@
         <v>78</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="M16" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="M16" t="s" s="2">
+      <c r="N16" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>182</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -3472,7 +3376,7 @@
         <v>78</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>79</v>
@@ -3490,7 +3394,7 @@
         <v>78</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>78</v>
@@ -3501,14 +3405,14 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
@@ -3527,16 +3431,16 @@
         <v>78</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="M17" t="s" s="2">
+      <c r="N17" t="s" s="2">
         <v>189</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>190</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -3586,7 +3490,7 @@
         <v>78</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>79</v>
@@ -3604,7 +3508,7 @@
         <v>78</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>78</v>
@@ -3615,10 +3519,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3644,10 +3548,10 @@
         <v>109</v>
       </c>
       <c r="L18" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="M18" t="s" s="2">
         <v>194</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>195</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -3696,7 +3600,7 @@
         <v>115</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>79</v>
@@ -3725,13 +3629,13 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="B19" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="C19" t="s" s="2">
         <v>197</v>
-      </c>
-      <c r="B19" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="C19" t="s" s="2">
-        <v>198</v>
       </c>
       <c r="D19" t="s" s="2">
         <v>78</v>
@@ -3753,13 +3657,13 @@
         <v>78</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>200</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>201</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -3810,7 +3714,7 @@
         <v>78</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>79</v>
@@ -3819,7 +3723,7 @@
         <v>80</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>117</v>
@@ -3839,13 +3743,13 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="C20" t="s" s="2">
         <v>203</v>
-      </c>
-      <c r="B20" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="C20" t="s" s="2">
-        <v>204</v>
       </c>
       <c r="D20" t="s" s="2">
         <v>78</v>
@@ -3867,13 +3771,13 @@
         <v>78</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -3924,7 +3828,7 @@
         <v>78</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>79</v>
@@ -3933,7 +3837,7 @@
         <v>80</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>117</v>
@@ -3942,7 +3846,7 @@
         <v>78</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>78</v>
+        <v>191</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>78</v>
@@ -3953,13 +3857,13 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="B21" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="C21" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="B21" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="C21" t="s" s="2">
-        <v>209</v>
       </c>
       <c r="D21" t="s" s="2">
         <v>78</v>
@@ -3981,13 +3885,13 @@
         <v>78</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="L21" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="M21" t="s" s="2">
         <v>210</v>
-      </c>
-      <c r="L21" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>211</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -4038,7 +3942,7 @@
         <v>78</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>79</v>
@@ -4067,46 +3971,46 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="B22" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="C22" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="B22" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="J22" t="s" s="2">
         <v>78</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>109</v>
+        <v>213</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M22" t="s" s="2">
         <v>214</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="O22" t="s" s="2">
         <v>215</v>
       </c>
+      <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>78</v>
       </c>
@@ -4154,7 +4058,7 @@
         <v>78</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>216</v>
+        <v>195</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>79</v>
@@ -4172,7 +4076,7 @@
         <v>78</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>192</v>
+        <v>78</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>78</v>
@@ -4183,12 +4087,14 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="B23" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="C23" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="B23" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
         <v>78</v>
       </c>
@@ -4197,7 +4103,7 @@
         <v>79</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>78</v>
@@ -4206,21 +4112,21 @@
         <v>78</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="N23" s="2"/>
-      <c r="O23" t="s" s="2">
-        <v>221</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="N23" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>78</v>
       </c>
@@ -4268,7 +4174,7 @@
         <v>78</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>217</v>
+        <v>195</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>79</v>
@@ -4277,32 +4183,34 @@
         <v>80</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>222</v>
+        <v>78</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>223</v>
+        <v>78</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>224</v>
+        <v>78</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>225</v>
+        <v>78</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>226</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="C24" s="2"/>
+        <v>192</v>
+      </c>
+      <c r="C24" t="s" s="2">
+        <v>219</v>
+      </c>
       <c r="D24" t="s" s="2">
         <v>78</v>
       </c>
@@ -4323,13 +4231,13 @@
         <v>78</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>102</v>
+        <v>220</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>103</v>
+        <v>221</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>104</v>
+        <v>222</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -4380,25 +4288,25 @@
         <v>78</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>105</v>
+        <v>195</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>78</v>
+        <v>201</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>78</v>
+        <v>117</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>106</v>
+        <v>78</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>78</v>
@@ -4409,21 +4317,23 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="C25" s="2"/>
+        <v>192</v>
+      </c>
+      <c r="C25" t="s" s="2">
+        <v>224</v>
+      </c>
       <c r="D25" t="s" s="2">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>78</v>
@@ -4435,17 +4345,15 @@
         <v>78</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>109</v>
+        <v>225</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>110</v>
+        <v>226</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>112</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="N25" s="2"/>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>78</v>
@@ -4482,19 +4390,19 @@
         <v>78</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>113</v>
+        <v>78</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>114</v>
+        <v>78</v>
       </c>
       <c r="AD25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>115</v>
+        <v>78</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>116</v>
+        <v>195</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>79</v>
@@ -4512,7 +4420,7 @@
         <v>78</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>106</v>
+        <v>78</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>78</v>
@@ -4523,12 +4431,14 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="B26" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="C26" t="s" s="2">
         <v>229</v>
       </c>
-      <c r="B26" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
         <v>78</v>
       </c>
@@ -4543,26 +4453,22 @@
         <v>78</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>169</v>
+        <v>230</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="N26" t="s" s="2">
         <v>232</v>
       </c>
-      <c r="O26" t="s" s="2">
-        <v>233</v>
-      </c>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>78</v>
       </c>
@@ -4586,11 +4492,13 @@
         <v>78</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="Y26" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="Y26" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="Z26" t="s" s="2">
-        <v>235</v>
+        <v>78</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>78</v>
@@ -4608,25 +4516,25 @@
         <v>78</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>236</v>
+        <v>195</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>192</v>
+        <v>78</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>237</v>
+        <v>78</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>78</v>
@@ -4637,45 +4545,45 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>239</v>
+        <v>109</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>242</v>
+        <v>112</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>78</v>
@@ -4700,11 +4608,13 @@
         <v>78</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="Y27" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="Y27" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="Z27" t="s" s="2">
-        <v>244</v>
+        <v>78</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>78</v>
@@ -4722,25 +4632,25 @@
         <v>78</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>246</v>
+        <v>78</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>237</v>
+        <v>191</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>78</v>
@@ -4751,10 +4661,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4762,10 +4672,10 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>78</v>
@@ -4777,19 +4687,17 @@
         <v>89</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>130</v>
+        <v>239</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>250</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>78</v>
@@ -4802,7 +4710,7 @@
         <v>78</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>252</v>
+        <v>78</v>
       </c>
       <c r="U28" t="s" s="2">
         <v>78</v>
@@ -4838,39 +4746,39 @@
         <v>78</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>78</v>
+        <v>243</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>78</v>
+        <v>247</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4878,7 +4786,7 @@
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>88</v>
@@ -4887,28 +4795,32 @@
         <v>78</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="J29" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>102</v>
+        <v>249</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="O29" s="2"/>
+        <v>252</v>
+      </c>
+      <c r="O29" t="s" s="2">
+        <v>253</v>
+      </c>
       <c r="P29" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="Q29" s="2"/>
+      <c r="Q29" t="s" s="2">
+        <v>254</v>
+      </c>
       <c r="R29" t="s" s="2">
         <v>78</v>
       </c>
@@ -4916,7 +4828,7 @@
         <v>78</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>261</v>
+        <v>78</v>
       </c>
       <c r="U29" t="s" s="2">
         <v>78</v>
@@ -4952,7 +4864,7 @@
         <v>78</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>262</v>
+        <v>248</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>79</v>
@@ -4967,24 +4879,24 @@
         <v>100</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>78</v>
+        <v>258</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4995,7 +4907,7 @@
         <v>79</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>78</v>
@@ -5007,22 +4919,26 @@
         <v>89</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="N30" s="2"/>
-      <c r="O30" s="2"/>
+        <v>262</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="O30" t="s" s="2">
+        <v>264</v>
+      </c>
       <c r="P30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="Q30" s="2"/>
       <c r="R30" t="s" s="2">
-        <v>78</v>
+        <v>265</v>
       </c>
       <c r="S30" t="s" s="2">
         <v>78</v>
@@ -5040,13 +4956,11 @@
         <v>78</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y30" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="Y30" s="2"/>
       <c r="Z30" t="s" s="2">
-        <v>78</v>
+        <v>266</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>78</v>
@@ -5064,13 +4978,13 @@
         <v>78</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>78</v>
@@ -5079,24 +4993,24 @@
         <v>100</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>273</v>
+        <v>106</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>78</v>
+        <v>269</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5119,18 +5033,20 @@
         <v>89</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>275</v>
+        <v>102</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="O31" s="2"/>
+        <v>273</v>
+      </c>
+      <c r="O31" t="s" s="2">
+        <v>274</v>
+      </c>
       <c r="P31" t="s" s="2">
         <v>78</v>
       </c>
@@ -5178,7 +5094,7 @@
         <v>78</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>79</v>
@@ -5187,19 +5103,19 @@
         <v>88</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>78</v>
+        <v>243</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>78</v>
@@ -5207,10 +5123,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5221,38 +5137,36 @@
         <v>79</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>284</v>
+        <v>102</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="O32" t="s" s="2">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="Q32" t="s" s="2">
-        <v>289</v>
-      </c>
+      <c r="Q32" s="2"/>
       <c r="R32" t="s" s="2">
         <v>78</v>
       </c>
@@ -5296,13 +5210,13 @@
         <v>78</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>78</v>
@@ -5311,24 +5225,24 @@
         <v>100</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>290</v>
+        <v>78</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>291</v>
+        <v>276</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>292</v>
+        <v>78</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>293</v>
+        <v>78</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5348,22 +5262,22 @@
         <v>78</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>239</v>
+        <v>284</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>78</v>
@@ -5388,11 +5302,13 @@
         <v>78</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="Y33" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="Y33" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="Z33" t="s" s="2">
-        <v>299</v>
+        <v>78</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>78</v>
@@ -5410,7 +5326,7 @@
         <v>78</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>79</v>
@@ -5419,30 +5335,30 @@
         <v>80</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>78</v>
+        <v>289</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>100</v>
+        <v>290</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>106</v>
+        <v>293</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>302</v>
+        <v>78</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5453,7 +5369,7 @@
         <v>79</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>78</v>
@@ -5462,22 +5378,22 @@
         <v>78</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>102</v>
+        <v>295</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>78</v>
@@ -5526,28 +5442,28 @@
         <v>78</v>
       </c>
       <c r="AF34" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="AG34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH34" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI34" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="AJ34" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="AK34" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="AL34" t="s" s="2">
         <v>303</v>
       </c>
-      <c r="AG34" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH34" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI34" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="AJ34" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK34" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="AL34" t="s" s="2">
-        <v>309</v>
-      </c>
       <c r="AM34" t="s" s="2">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>78</v>
@@ -5555,10 +5471,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5569,7 +5485,7 @@
         <v>79</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>78</v>
@@ -5578,22 +5494,20 @@
         <v>78</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>102</v>
+        <v>306</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>314</v>
-      </c>
+        <v>308</v>
+      </c>
+      <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>78</v>
@@ -5642,13 +5556,13 @@
         <v>78</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>78</v>
@@ -5657,13 +5571,13 @@
         <v>100</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>78</v>
+        <v>255</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>78</v>
@@ -5671,10 +5585,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5685,7 +5599,7 @@
         <v>79</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>78</v>
@@ -5697,20 +5611,16 @@
         <v>78</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>317</v>
+        <v>102</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>318</v>
+        <v>103</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="O36" t="s" s="2">
-        <v>321</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>78</v>
       </c>
@@ -5758,28 +5668,28 @@
         <v>78</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>316</v>
+        <v>105</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>322</v>
+        <v>78</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>323</v>
+        <v>78</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>324</v>
+        <v>78</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>325</v>
+        <v>106</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>326</v>
+        <v>78</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>78</v>
@@ -5787,14 +5697,14 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>327</v>
+        <v>312</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>327</v>
+        <v>312</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
@@ -5813,20 +5723,18 @@
         <v>78</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>328</v>
+        <v>109</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>329</v>
+        <v>110</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>330</v>
+        <v>111</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="O37" t="s" s="2">
-        <v>332</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>78</v>
       </c>
@@ -5862,19 +5770,19 @@
         <v>78</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>78</v>
+        <v>113</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="AD37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>327</v>
+        <v>116</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>79</v>
@@ -5883,19 +5791,19 @@
         <v>80</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>333</v>
+        <v>78</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>334</v>
+        <v>117</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>335</v>
+        <v>78</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>336</v>
+        <v>106</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>337</v>
+        <v>78</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>78</v>
@@ -5903,10 +5811,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>338</v>
+        <v>313</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>338</v>
+        <v>313</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5929,18 +5837,18 @@
         <v>89</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>339</v>
+        <v>102</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>340</v>
+        <v>314</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="N38" s="2"/>
-      <c r="O38" t="s" s="2">
-        <v>342</v>
-      </c>
+        <v>315</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>78</v>
       </c>
@@ -5988,7 +5896,7 @@
         <v>78</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>338</v>
+        <v>317</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>79</v>
@@ -5997,19 +5905,19 @@
         <v>88</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>78</v>
+        <v>318</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>290</v>
+        <v>78</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>343</v>
+        <v>191</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>106</v>
+        <v>78</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>78</v>
@@ -6017,10 +5925,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>344</v>
+        <v>319</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>344</v>
+        <v>319</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6040,18 +5948,20 @@
         <v>78</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>102</v>
+        <v>130</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>103</v>
+        <v>320</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="N39" s="2"/>
+        <v>321</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>322</v>
+      </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>78</v>
@@ -6076,13 +5986,11 @@
         <v>78</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y39" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="Y39" s="2"/>
       <c r="Z39" t="s" s="2">
-        <v>78</v>
+        <v>266</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>78</v>
@@ -6100,7 +6008,7 @@
         <v>78</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>105</v>
+        <v>323</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>79</v>
@@ -6112,13 +6020,13 @@
         <v>78</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>106</v>
+        <v>191</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>78</v>
@@ -6129,21 +6037,21 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>345</v>
+        <v>324</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>345</v>
+        <v>324</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>78</v>
@@ -6152,19 +6060,19 @@
         <v>78</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>109</v>
+        <v>239</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>110</v>
+        <v>325</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>111</v>
+        <v>326</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>112</v>
+        <v>327</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -6202,37 +6110,37 @@
         <v>78</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>113</v>
+        <v>78</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>114</v>
+        <v>78</v>
       </c>
       <c r="AD40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>115</v>
+        <v>78</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>116</v>
+        <v>328</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>106</v>
+        <v>329</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>78</v>
@@ -6243,10 +6151,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>346</v>
+        <v>330</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>346</v>
+        <v>330</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6272,13 +6180,13 @@
         <v>102</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>347</v>
+        <v>331</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>348</v>
+        <v>332</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>349</v>
+        <v>333</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -6328,7 +6236,7 @@
         <v>78</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>350</v>
+        <v>334</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>79</v>
@@ -6337,7 +6245,7 @@
         <v>88</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>351</v>
+        <v>78</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>100</v>
@@ -6346,7 +6254,7 @@
         <v>78</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>78</v>
@@ -6357,10 +6265,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>352</v>
+        <v>335</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>352</v>
+        <v>335</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6371,7 +6279,7 @@
         <v>79</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>78</v>
@@ -6380,21 +6288,23 @@
         <v>78</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>130</v>
+        <v>336</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>353</v>
+        <v>337</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>354</v>
+        <v>338</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="O42" s="2"/>
+        <v>339</v>
+      </c>
+      <c r="O42" t="s" s="2">
+        <v>340</v>
+      </c>
       <c r="P42" t="s" s="2">
         <v>78</v>
       </c>
@@ -6418,11 +6328,13 @@
         <v>78</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="Y42" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="Y42" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="Z42" t="s" s="2">
-        <v>299</v>
+        <v>78</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>78</v>
@@ -6440,13 +6352,13 @@
         <v>78</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>356</v>
+        <v>335</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>78</v>
@@ -6458,7 +6370,7 @@
         <v>78</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>192</v>
+        <v>341</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>78</v>
@@ -6469,10 +6381,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>357</v>
+        <v>342</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>357</v>
+        <v>342</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6492,20 +6404,18 @@
         <v>78</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>218</v>
+        <v>102</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>358</v>
+        <v>103</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>360</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="N43" s="2"/>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>78</v>
@@ -6554,7 +6464,7 @@
         <v>78</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>361</v>
+        <v>105</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>79</v>
@@ -6566,13 +6476,13 @@
         <v>78</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>362</v>
+        <v>106</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>78</v>
@@ -6583,21 +6493,21 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>363</v>
+        <v>343</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>363</v>
+        <v>343</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>78</v>
@@ -6606,19 +6516,19 @@
         <v>78</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>364</v>
+        <v>110</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>365</v>
+        <v>111</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>366</v>
+        <v>112</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -6668,25 +6578,25 @@
         <v>78</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>367</v>
+        <v>116</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>192</v>
+        <v>106</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>78</v>
@@ -6697,14 +6607,14 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>368</v>
+        <v>344</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>368</v>
+        <v>344</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>78</v>
+        <v>345</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
@@ -6717,25 +6627,25 @@
         <v>78</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>369</v>
+        <v>109</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>370</v>
+        <v>346</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>372</v>
+        <v>112</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>373</v>
+        <v>236</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>78</v>
@@ -6784,7 +6694,7 @@
         <v>78</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>368</v>
+        <v>348</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>79</v>
@@ -6796,13 +6706,13 @@
         <v>78</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>374</v>
+        <v>191</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>78</v>
@@ -6813,10 +6723,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>375</v>
+        <v>349</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>375</v>
+        <v>349</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6839,16 +6749,18 @@
         <v>78</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>102</v>
+        <v>260</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>103</v>
+        <v>350</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>104</v>
+        <v>351</v>
       </c>
       <c r="N46" s="2"/>
-      <c r="O46" s="2"/>
+      <c r="O46" t="s" s="2">
+        <v>352</v>
+      </c>
       <c r="P46" t="s" s="2">
         <v>78</v>
       </c>
@@ -6872,13 +6784,13 @@
         <v>78</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>78</v>
+        <v>150</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>78</v>
+        <v>353</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>78</v>
+        <v>354</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>78</v>
@@ -6896,7 +6808,7 @@
         <v>78</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>105</v>
+        <v>349</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>79</v>
@@ -6908,13 +6820,13 @@
         <v>78</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>106</v>
+        <v>355</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>78</v>
@@ -6925,21 +6837,21 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>376</v>
+        <v>356</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>376</v>
+        <v>356</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>78</v>
@@ -6951,18 +6863,18 @@
         <v>78</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>109</v>
+        <v>357</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>110</v>
+        <v>358</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="O47" s="2"/>
+        <v>359</v>
+      </c>
+      <c r="N47" s="2"/>
+      <c r="O47" t="s" s="2">
+        <v>360</v>
+      </c>
       <c r="P47" t="s" s="2">
         <v>78</v>
       </c>
@@ -7010,25 +6922,25 @@
         <v>78</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>116</v>
+        <v>356</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>78</v>
+        <v>361</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>106</v>
+        <v>362</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>78</v>
@@ -7039,14 +6951,14 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>377</v>
+        <v>363</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>377</v>
+        <v>363</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>378</v>
+        <v>78</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
@@ -7059,25 +6971,23 @@
         <v>78</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>109</v>
+        <v>284</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>379</v>
+        <v>364</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>112</v>
-      </c>
+        <v>365</v>
+      </c>
+      <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
-        <v>215</v>
+        <v>366</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>78</v>
@@ -7126,7 +7036,7 @@
         <v>78</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>79</v>
@@ -7138,13 +7048,13 @@
         <v>78</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>78</v>
+        <v>367</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>192</v>
+        <v>368</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>78</v>
@@ -7155,10 +7065,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>382</v>
+        <v>369</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>382</v>
+        <v>369</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7181,17 +7091,17 @@
         <v>78</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>239</v>
+        <v>295</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>383</v>
+        <v>370</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>384</v>
+        <v>371</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
-        <v>385</v>
+        <v>372</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>78</v>
@@ -7216,13 +7126,13 @@
         <v>78</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>151</v>
+        <v>78</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>386</v>
+        <v>78</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>387</v>
+        <v>78</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>78</v>
@@ -7240,7 +7150,7 @@
         <v>78</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>382</v>
+        <v>369</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>79</v>
@@ -7255,10 +7165,10 @@
         <v>100</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>78</v>
+        <v>373</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>388</v>
+        <v>374</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>78</v>
@@ -7269,10 +7179,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7283,7 +7193,7 @@
         <v>79</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>78</v>
@@ -7295,17 +7205,17 @@
         <v>78</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>390</v>
+        <v>376</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>391</v>
+        <v>377</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>392</v>
+        <v>378</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
-        <v>393</v>
+        <v>379</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>78</v>
@@ -7354,13 +7264,13 @@
         <v>78</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>78</v>
@@ -7369,357 +7279,15 @@
         <v>100</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>394</v>
+        <v>78</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>395</v>
+        <v>106</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="B51" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="C51" s="2"/>
-      <c r="D51" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E51" s="2"/>
-      <c r="F51" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G51" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H51" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I51" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J51" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K51" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="L51" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="N51" s="2"/>
-      <c r="O51" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="P51" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q51" s="2"/>
-      <c r="R51" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S51" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T51" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U51" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V51" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W51" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X51" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y51" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z51" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA51" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB51" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC51" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD51" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE51" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF51" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="AG51" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH51" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI51" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ51" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK51" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="AL51" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="AM51" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN51" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="B52" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="C52" s="2"/>
-      <c r="D52" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E52" s="2"/>
-      <c r="F52" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G52" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H52" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I52" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J52" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K52" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="L52" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="N52" s="2"/>
-      <c r="O52" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="P52" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q52" s="2"/>
-      <c r="R52" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S52" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T52" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U52" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V52" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W52" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X52" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y52" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z52" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA52" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB52" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC52" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD52" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE52" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF52" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="AG52" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH52" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI52" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ52" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK52" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="AL52" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="AM52" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN52" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="B53" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="C53" s="2"/>
-      <c r="D53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E53" s="2"/>
-      <c r="F53" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G53" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K53" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="L53" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="N53" s="2"/>
-      <c r="O53" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="P53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q53" s="2"/>
-      <c r="R53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF53" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="AG53" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH53" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ53" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL53" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AM53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN53" t="s" s="2">
         <v>78</v>
       </c>
     </row>
